--- a/results/08-2022/contributions-comparison-08-2022.xlsx
+++ b/results/08-2022/contributions-comparison-08-2022.xlsx
@@ -828,31 +828,31 @@
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9" t="n">
-        <v>-0.5374</v>
+        <v>-0.6584</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.1464</v>
+        <v>-0.1397</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.203</v>
+        <v>-0.204</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0628</v>
+        <v>-0.0636</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.1661</v>
+        <v>-0.1667</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.1835</v>
+        <v>-0.1492</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.3168</v>
+        <v>-0.3178</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.4458</v>
+        <v>-0.4466</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.0834</v>
+        <v>-0.0842</v>
       </c>
     </row>
     <row r="10">
@@ -984,31 +984,31 @@
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13" t="n">
-        <v>-0.0483</v>
+        <v>-0.015</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.0253</v>
+        <v>0.0076</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0463</v>
+        <v>-0.0154</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1096</v>
+        <v>0.1387</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0387</v>
+        <v>0.0323</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.0122</v>
+        <v>-0.0206</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.0537</v>
+        <v>-0.0608</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.0951</v>
+        <v>-0.101</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0109</v>
+        <v>0.0086</v>
       </c>
     </row>
     <row r="14">
@@ -1077,16 +1077,16 @@
         <v>-0.246</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.137</v>
+        <v>-0.1373</v>
       </c>
       <c r="O15" t="n">
-        <v>0.137</v>
+        <v>0.1364</v>
       </c>
       <c r="P15" t="n">
-        <v>0.1538</v>
+        <v>0.1531</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.2953</v>
+        <v>0.2944</v>
       </c>
     </row>
     <row r="16">
@@ -1140,31 +1140,31 @@
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17" t="n">
-        <v>-0.1712</v>
+        <v>-0.1372</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.1312</v>
+        <v>-0.1411</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0808</v>
+        <v>-0.0811</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0629</v>
+        <v>-0.0747</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.0236</v>
+        <v>-0.0238</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.0333</v>
+        <v>-0.0335</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.0649</v>
+        <v>-0.065</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.0551</v>
+        <v>-0.0552</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.0465</v>
+        <v>-0.0467</v>
       </c>
     </row>
     <row r="18">
@@ -1377,28 +1377,28 @@
         <v>-0.8095</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.459</v>
+        <v>-0.3817</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.3127</v>
+        <v>-0.2373</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.2116</v>
+        <v>-0.138</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.066</v>
+        <v>0.006</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.1769</v>
+        <v>-0.2023</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.0117</v>
+        <v>-0.0366</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.0103</v>
+        <v>-0.0347</v>
       </c>
       <c r="Q23" t="n">
-        <v>-0.009</v>
+        <v>-0.0329</v>
       </c>
     </row>
     <row r="24">
@@ -1452,31 +1452,31 @@
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25" t="n">
-        <v>-0.1903</v>
+        <v>-0.1832</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.0742</v>
+        <v>-0.073</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.0613</v>
+        <v>-0.0599</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.6077</v>
+        <v>-0.6065</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.6349</v>
+        <v>-0.6337</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.3109</v>
+        <v>-0.3066</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.1914</v>
+        <v>-0.1875</v>
       </c>
       <c r="P25" t="n">
-        <v>-0.3319</v>
+        <v>-0.3283</v>
       </c>
       <c r="Q25" t="n">
-        <v>-0.2479</v>
+        <v>-0.2448</v>
       </c>
     </row>
     <row r="26">
@@ -1608,31 +1608,31 @@
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29" t="n">
-        <v>-3.1782</v>
+        <v>-3.3077</v>
       </c>
       <c r="J29" t="n">
-        <v>-2.2827</v>
+        <v>-2.0738</v>
       </c>
       <c r="K29" t="n">
-        <v>-2.1715</v>
+        <v>-2.0512</v>
       </c>
       <c r="L29" t="n">
-        <v>-3.0679</v>
+        <v>-2.9627</v>
       </c>
       <c r="M29" t="n">
-        <v>-1.301</v>
+        <v>-1.2317</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.8976</v>
+        <v>-0.9276</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.3784</v>
+        <v>-0.405</v>
       </c>
       <c r="P29" t="n">
-        <v>-0.5389</v>
+        <v>-0.5642</v>
       </c>
       <c r="Q29" t="n">
-        <v>-0.3732</v>
+        <v>-0.3977</v>
       </c>
     </row>
     <row r="30">
@@ -1764,31 +1764,31 @@
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33" t="n">
-        <v>-0.7065</v>
+        <v>-0.6098</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.1143</v>
+        <v>-0.2014</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.1955</v>
+        <v>-0.1956</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.036</v>
+        <v>-0.0361</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.1144</v>
+        <v>-0.1146</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.1074</v>
+        <v>-0.0702</v>
       </c>
       <c r="O33" t="n">
-        <v>-0.2614</v>
+        <v>-0.262</v>
       </c>
       <c r="P33" t="n">
-        <v>-0.38</v>
+        <v>-0.3806</v>
       </c>
       <c r="Q33" t="n">
-        <v>-0.0184</v>
+        <v>-0.0189</v>
       </c>
     </row>
     <row r="34">
@@ -2076,31 +2076,31 @@
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41" t="n">
-        <v>0.8289</v>
+        <v>0.7322</v>
       </c>
       <c r="J41" t="n">
-        <v>0.102</v>
+        <v>0.189</v>
       </c>
       <c r="K41" t="n">
-        <v>0.1289</v>
+        <v>0.129</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.065</v>
+        <v>-0.0648</v>
       </c>
       <c r="M41" t="n">
-        <v>-0.008</v>
+        <v>-0.0079</v>
       </c>
       <c r="N41" t="n">
-        <v>-0.0214</v>
+        <v>-0.0586</v>
       </c>
       <c r="O41" t="n">
-        <v>0.1242</v>
+        <v>0.1248</v>
       </c>
       <c r="P41" t="n">
-        <v>0.2465</v>
+        <v>0.247</v>
       </c>
       <c r="Q41" t="n">
-        <v>-0.1076</v>
+        <v>-0.107</v>
       </c>
     </row>
     <row r="42">
@@ -2232,28 +2232,28 @@
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45" t="n">
-        <v>-0.086</v>
+        <v>-0.0723</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.0369</v>
+        <v>-0.0232</v>
       </c>
       <c r="K45" t="n">
-        <v>0.0897</v>
+        <v>0.1034</v>
       </c>
       <c r="L45" t="n">
-        <v>0.0326</v>
+        <v>0.0463</v>
       </c>
       <c r="M45" t="n">
-        <v>0.1987</v>
+        <v>0.2018</v>
       </c>
       <c r="N45" t="n">
-        <v>0.1589</v>
+        <v>0.1618</v>
       </c>
       <c r="O45" t="n">
-        <v>0.1279</v>
+        <v>0.1305</v>
       </c>
       <c r="P45" t="n">
-        <v>0.0972</v>
+        <v>0.0997</v>
       </c>
       <c r="Q45" t="n">
         <v>-0.0793</v>
@@ -2934,31 +2934,31 @@
       <c r="G63"/>
       <c r="H63"/>
       <c r="I63" t="n">
-        <v>0.0039</v>
+        <v>-0.117</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>0.0068</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>-0.001</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>-0.0008</v>
       </c>
       <c r="M63" t="n">
-        <v>0</v>
+        <v>-0.0006</v>
       </c>
       <c r="N63" t="n">
-        <v>0</v>
+        <v>0.0343</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>-0.001</v>
       </c>
       <c r="P63" t="n">
-        <v>0</v>
+        <v>-0.0009</v>
       </c>
       <c r="Q63" t="n">
-        <v>0</v>
+        <v>-0.0008</v>
       </c>
     </row>
     <row r="64">
@@ -3090,31 +3090,31 @@
       <c r="G67"/>
       <c r="H67"/>
       <c r="I67" t="n">
-        <v>0.0031</v>
+        <v>0.0364</v>
       </c>
       <c r="J67" t="n">
-        <v>0.0029</v>
+        <v>0.0357</v>
       </c>
       <c r="K67" t="n">
-        <v>0.0029</v>
+        <v>0.0338</v>
       </c>
       <c r="L67" t="n">
-        <v>0.0031</v>
+        <v>0.0323</v>
       </c>
       <c r="M67" t="n">
-        <v>-0.0017</v>
+        <v>-0.0082</v>
       </c>
       <c r="N67" t="n">
-        <v>-0.0014</v>
+        <v>-0.0098</v>
       </c>
       <c r="O67" t="n">
-        <v>-0.0012</v>
+        <v>-0.0083</v>
       </c>
       <c r="P67" t="n">
-        <v>-0.0009</v>
+        <v>-0.0068</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.0009</v>
+        <v>-0.0013</v>
       </c>
     </row>
     <row r="68">
@@ -3183,16 +3183,16 @@
         <v>-0.0074</v>
       </c>
       <c r="N69" t="n">
-        <v>-0.0072</v>
+        <v>-0.0075</v>
       </c>
       <c r="O69" t="n">
-        <v>-0.0071</v>
+        <v>-0.0077</v>
       </c>
       <c r="P69" t="n">
-        <v>0.0006</v>
+        <v>-0.0002</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.001</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="70">
@@ -3246,31 +3246,31 @@
       <c r="G71"/>
       <c r="H71"/>
       <c r="I71" t="n">
-        <v>0.0002</v>
+        <v>0.0342</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>-0.0099</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>-0.0003</v>
       </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>-0.0118</v>
       </c>
       <c r="M71" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="N71" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="O71" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="P71" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="Q71" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="72">
@@ -3483,28 +3483,28 @@
         <v>0.0008</v>
       </c>
       <c r="J77" t="n">
-        <v>-0.0002</v>
+        <v>0.0771</v>
       </c>
       <c r="K77" t="n">
-        <v>-0.0002</v>
+        <v>0.0752</v>
       </c>
       <c r="L77" t="n">
-        <v>0.007</v>
+        <v>0.0807</v>
       </c>
       <c r="M77" t="n">
-        <v>0.0001</v>
+        <v>0.0721</v>
       </c>
       <c r="N77" t="n">
-        <v>0.0001</v>
+        <v>-0.0253</v>
       </c>
       <c r="O77" t="n">
-        <v>0</v>
+        <v>-0.0249</v>
       </c>
       <c r="P77" t="n">
-        <v>0</v>
+        <v>-0.0244</v>
       </c>
       <c r="Q77" t="n">
-        <v>0</v>
+        <v>-0.0239</v>
       </c>
     </row>
     <row r="78">
@@ -3558,31 +3558,31 @@
       <c r="G79"/>
       <c r="H79"/>
       <c r="I79" t="n">
-        <v>0.0002</v>
+        <v>0.0073</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
+        <v>0.0011</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>0.0014</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>0.0013</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
+        <v>0.0012</v>
       </c>
       <c r="N79" t="n">
-        <v>0</v>
+        <v>0.0044</v>
       </c>
       <c r="O79" t="n">
-        <v>0</v>
+        <v>0.0039</v>
       </c>
       <c r="P79" t="n">
-        <v>0</v>
+        <v>0.0037</v>
       </c>
       <c r="Q79" t="n">
-        <v>0</v>
+        <v>0.0032</v>
       </c>
     </row>
     <row r="80">
@@ -3714,31 +3714,31 @@
       <c r="G83"/>
       <c r="H83"/>
       <c r="I83" t="n">
-        <v>0.3774</v>
+        <v>0.2478</v>
       </c>
       <c r="J83" t="n">
-        <v>0.0185</v>
+        <v>0.2274</v>
       </c>
       <c r="K83" t="n">
-        <v>0.0232</v>
+        <v>0.1434</v>
       </c>
       <c r="L83" t="n">
-        <v>-0.0039</v>
+        <v>0.1013</v>
       </c>
       <c r="M83" t="n">
-        <v>-0.0149</v>
+        <v>0.0543</v>
       </c>
       <c r="N83" t="n">
-        <v>-0.0154</v>
+        <v>-0.0454</v>
       </c>
       <c r="O83" t="n">
-        <v>-0.0159</v>
+        <v>-0.0426</v>
       </c>
       <c r="P83" t="n">
-        <v>-0.0087</v>
+        <v>-0.0341</v>
       </c>
       <c r="Q83" t="n">
-        <v>-0.0043</v>
+        <v>-0.0287</v>
       </c>
     </row>
     <row r="84">
@@ -3870,31 +3870,31 @@
       <c r="G87"/>
       <c r="H87"/>
       <c r="I87" t="n">
-        <v>0.0009</v>
+        <v>0.0976</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>-0.087</v>
       </c>
       <c r="K87" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="L87" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="M87" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="N87" t="n">
-        <v>0</v>
+        <v>0.0372</v>
       </c>
       <c r="O87" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="P87" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="Q87" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
     </row>
     <row r="88">
@@ -4182,31 +4182,31 @@
       <c r="G95"/>
       <c r="H95"/>
       <c r="I95" t="n">
-        <v>0.3703</v>
+        <v>0.2736</v>
       </c>
       <c r="J95" t="n">
-        <v>-0.0001</v>
+        <v>0.0869</v>
       </c>
       <c r="K95" t="n">
-        <v>-0.0008</v>
+        <v>-0.0006</v>
       </c>
       <c r="L95" t="n">
-        <v>-0.0012</v>
+        <v>-0.001</v>
       </c>
       <c r="M95" t="n">
-        <v>-0.0014</v>
+        <v>-0.0013</v>
       </c>
       <c r="N95" t="n">
-        <v>-0.0015</v>
+        <v>-0.0387</v>
       </c>
       <c r="O95" t="n">
-        <v>-0.0016</v>
+        <v>-0.001</v>
       </c>
       <c r="P95" t="n">
-        <v>-0.0015</v>
+        <v>-0.001</v>
       </c>
       <c r="Q95" t="n">
-        <v>-0.0014</v>
+        <v>-0.0009</v>
       </c>
     </row>
     <row r="96">
@@ -4338,31 +4338,31 @@
       <c r="G99"/>
       <c r="H99"/>
       <c r="I99" t="n">
-        <v>0.0305</v>
+        <v>0.0442</v>
       </c>
       <c r="J99" t="n">
-        <v>0.0302</v>
+        <v>0.0439</v>
       </c>
       <c r="K99" t="n">
-        <v>0.0301</v>
+        <v>0.0438</v>
       </c>
       <c r="L99" t="n">
-        <v>0.0022</v>
+        <v>0.0158</v>
       </c>
       <c r="M99" t="n">
-        <v>0.0032</v>
+        <v>0.0063</v>
       </c>
       <c r="N99" t="n">
-        <v>0.0022</v>
+        <v>0.0051</v>
       </c>
       <c r="O99" t="n">
-        <v>0.0014</v>
+        <v>0.004</v>
       </c>
       <c r="P99" t="n">
-        <v>0.0005</v>
+        <v>0.003</v>
       </c>
       <c r="Q99" t="n">
-        <v>-0.002</v>
+        <v>-0.0021</v>
       </c>
     </row>
     <row r="100">

--- a/results/08-2022/contributions-comparison-08-2022.xlsx
+++ b/results/08-2022/contributions-comparison-08-2022.xlsx
@@ -912,25 +912,25 @@
         <v>-0.014</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.0522</v>
+        <v>-0.0703</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.0554</v>
+        <v>-0.0731</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.0378</v>
+        <v>-0.055</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.0318</v>
+        <v>-0.0487</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.0228</v>
+        <v>-0.0394</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.0112</v>
+        <v>-0.0275</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.0086</v>
+        <v>-0.0246</v>
       </c>
     </row>
     <row r="12">
@@ -1080,13 +1080,13 @@
         <v>-0.1373</v>
       </c>
       <c r="O15" t="n">
-        <v>0.1364</v>
+        <v>0.1478</v>
       </c>
       <c r="P15" t="n">
-        <v>0.1531</v>
+        <v>0.1643</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.2944</v>
+        <v>0.2998</v>
       </c>
     </row>
     <row r="16">
@@ -1611,28 +1611,28 @@
         <v>-3.3077</v>
       </c>
       <c r="J29" t="n">
-        <v>-2.0738</v>
+        <v>-2.0918</v>
       </c>
       <c r="K29" t="n">
-        <v>-2.0512</v>
+        <v>-2.087</v>
       </c>
       <c r="L29" t="n">
-        <v>-2.9627</v>
+        <v>-2.9915</v>
       </c>
       <c r="M29" t="n">
-        <v>-1.2317</v>
+        <v>-1.2599</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.9276</v>
+        <v>-0.9552</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.405</v>
+        <v>-0.4207</v>
       </c>
       <c r="P29" t="n">
-        <v>-0.5642</v>
+        <v>-0.5797</v>
       </c>
       <c r="Q29" t="n">
-        <v>-0.3977</v>
+        <v>-0.4185</v>
       </c>
     </row>
     <row r="30">
@@ -2157,28 +2157,28 @@
         <v>-0.0171</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.0121</v>
+        <v>-0.0172</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.0145</v>
+        <v>-0.0195</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.0157</v>
+        <v>-0.0206</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.0075</v>
+        <v>-0.0122</v>
       </c>
       <c r="N43" t="n">
-        <v>-0.0058</v>
+        <v>-0.0104</v>
       </c>
       <c r="O43" t="n">
-        <v>-0.0022</v>
+        <v>-0.0067</v>
       </c>
       <c r="P43" t="n">
-        <v>0.0007</v>
+        <v>-0.0037</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.0023</v>
+        <v>-0.002</v>
       </c>
     </row>
     <row r="44">
@@ -2313,28 +2313,28 @@
         <v>-0.1373</v>
       </c>
       <c r="J47" t="n">
-        <v>-0.1289</v>
+        <v>-0.1418</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.0836</v>
+        <v>-0.0963</v>
       </c>
       <c r="L47" t="n">
-        <v>-0.0609</v>
+        <v>-0.0672</v>
       </c>
       <c r="M47" t="n">
-        <v>-0.0558</v>
+        <v>-0.062</v>
       </c>
       <c r="N47" t="n">
-        <v>-0.039</v>
+        <v>-0.0451</v>
       </c>
       <c r="O47" t="n">
-        <v>-0.0287</v>
+        <v>-0.0348</v>
       </c>
       <c r="P47" t="n">
-        <v>-0.0212</v>
+        <v>-0.0272</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.0051</v>
+        <v>-0.0009</v>
       </c>
     </row>
     <row r="48">
@@ -3018,25 +3018,25 @@
         <v>-0.0086</v>
       </c>
       <c r="K65" t="n">
-        <v>-0.0087</v>
+        <v>-0.0268</v>
       </c>
       <c r="L65" t="n">
-        <v>-0.0088</v>
+        <v>-0.0265</v>
       </c>
       <c r="M65" t="n">
-        <v>-0.0089</v>
+        <v>-0.0262</v>
       </c>
       <c r="N65" t="n">
-        <v>-0.0089</v>
+        <v>-0.0258</v>
       </c>
       <c r="O65" t="n">
-        <v>-0.0088</v>
+        <v>-0.0254</v>
       </c>
       <c r="P65" t="n">
-        <v>-0.0087</v>
+        <v>-0.025</v>
       </c>
       <c r="Q65" t="n">
-        <v>-0.0087</v>
+        <v>-0.0247</v>
       </c>
     </row>
     <row r="66">
@@ -3186,13 +3186,13 @@
         <v>-0.0075</v>
       </c>
       <c r="O69" t="n">
-        <v>-0.0077</v>
+        <v>0.0037</v>
       </c>
       <c r="P69" t="n">
-        <v>-0.0002</v>
+        <v>0.011</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.0001</v>
+        <v>0.0054</v>
       </c>
     </row>
     <row r="70">
@@ -3717,28 +3717,28 @@
         <v>0.2478</v>
       </c>
       <c r="J83" t="n">
-        <v>0.2274</v>
+        <v>0.2094</v>
       </c>
       <c r="K83" t="n">
-        <v>0.1434</v>
+        <v>0.1077</v>
       </c>
       <c r="L83" t="n">
-        <v>0.1013</v>
+        <v>0.0725</v>
       </c>
       <c r="M83" t="n">
-        <v>0.0543</v>
+        <v>0.0262</v>
       </c>
       <c r="N83" t="n">
-        <v>-0.0454</v>
+        <v>-0.073</v>
       </c>
       <c r="O83" t="n">
-        <v>-0.0426</v>
+        <v>-0.0583</v>
       </c>
       <c r="P83" t="n">
-        <v>-0.0341</v>
+        <v>-0.0495</v>
       </c>
       <c r="Q83" t="n">
-        <v>-0.0287</v>
+        <v>-0.0496</v>
       </c>
     </row>
     <row r="84">
@@ -4263,28 +4263,28 @@
         <v>0.0015</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
+        <v>-0.0052</v>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>-0.005</v>
       </c>
       <c r="L97" t="n">
-        <v>0</v>
+        <v>-0.0049</v>
       </c>
       <c r="M97" t="n">
-        <v>0</v>
+        <v>-0.0047</v>
       </c>
       <c r="N97" t="n">
-        <v>0</v>
+        <v>-0.0046</v>
       </c>
       <c r="O97" t="n">
-        <v>0</v>
+        <v>-0.0045</v>
       </c>
       <c r="P97" t="n">
-        <v>0</v>
+        <v>-0.0044</v>
       </c>
       <c r="Q97" t="n">
-        <v>0</v>
+        <v>-0.0043</v>
       </c>
     </row>
     <row r="98">
@@ -4419,28 +4419,28 @@
         <v>-0.0101</v>
       </c>
       <c r="J101" t="n">
-        <v>0.0029</v>
+        <v>-0.01</v>
       </c>
       <c r="K101" t="n">
-        <v>0.0077</v>
+        <v>-0.005</v>
       </c>
       <c r="L101" t="n">
-        <v>0.0014</v>
+        <v>-0.0049</v>
       </c>
       <c r="M101" t="n">
-        <v>0.0014</v>
+        <v>-0.0048</v>
       </c>
       <c r="N101" t="n">
-        <v>0.0014</v>
+        <v>-0.0048</v>
       </c>
       <c r="O101" t="n">
-        <v>0.0013</v>
+        <v>-0.0047</v>
       </c>
       <c r="P101" t="n">
-        <v>0.0014</v>
+        <v>-0.0046</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
